--- a/biology/Zoologie/Halichoeres_melanochir/Halichoeres_melanochir.xlsx
+++ b/biology/Zoologie/Halichoeres_melanochir/Halichoeres_melanochir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halichoeres melanochir est une espèce de poissons osseux de petite taille de la famille des Labridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux Philippines, à Taïwan, dans le Sud du Japon et du Sud jusqu'au Nord-Ouest de l'Australie[3] et ce à une profondeur comprise entre 5 et 25 m[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux Philippines, à Taïwan, dans le Sud du Japon et du Sud jusqu'au Nord-Ouest de l'Australie et ce à une profondeur comprise entre 5 et 25 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson peut atteindre une longueur totale de 18 cm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson peut atteindre une longueur totale de 18 cm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce ne fait face à aucune menace importante au-delà de la collecte occasionnelle pour des aquariums.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, dérivé du grec ancien μέλανος, mélanos, « noir », et χείρ, kheír, « main », lui a été donné en référence à la large tache noire présente à la base de la nageoire pectorale[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, dérivé du grec ancien μέλανος, mélanos, « noir », et χείρ, kheír, « main », lui a été donné en référence à la large tache noire présente à la base de la nageoire pectorale.
 </t>
         </is>
       </c>
